--- a/Excel/table_of_test_data.xlsx
+++ b/Excel/table_of_test_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:SU11"/>
+  <dimension ref="A1:SV11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3009,6 +3009,11 @@
           <t>cddd_511</t>
         </is>
       </c>
+      <c r="SV1" s="1" t="inlineStr">
+        <is>
+          <t>cddd_512</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -4564,6 +4569,9 @@
       <c r="SU2" t="n">
         <v>0.812811</v>
       </c>
+      <c r="SV2" t="n">
+        <v>0.11062015</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -6119,6 +6127,9 @@
       <c r="SU3" t="n">
         <v>0.812811</v>
       </c>
+      <c r="SV3" t="n">
+        <v>0.11062015</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -7674,6 +7685,9 @@
       <c r="SU4" t="n">
         <v>0.812811</v>
       </c>
+      <c r="SV4" t="n">
+        <v>0.11062015</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -9229,6 +9243,9 @@
       <c r="SU5" t="n">
         <v>0.57105744</v>
       </c>
+      <c r="SV5" t="n">
+        <v>0.7585177</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -10784,6 +10801,9 @@
       <c r="SU6" t="n">
         <v>0.57105744</v>
       </c>
+      <c r="SV6" t="n">
+        <v>0.7585177</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -12339,6 +12359,9 @@
       <c r="SU7" t="n">
         <v>0.37249196</v>
       </c>
+      <c r="SV7" t="n">
+        <v>0.20021431</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -13894,6 +13917,9 @@
       <c r="SU8" t="n">
         <v>0.4379996</v>
       </c>
+      <c r="SV8" t="n">
+        <v>-0.3236492</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -15449,6 +15475,9 @@
       <c r="SU9" t="n">
         <v>0.5600393</v>
       </c>
+      <c r="SV9" t="n">
+        <v>0.009513986</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -17004,6 +17033,9 @@
       <c r="SU10" t="n">
         <v>0.5600393</v>
       </c>
+      <c r="SV10" t="n">
+        <v>0.009513986</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -18558,6 +18590,9 @@
       </c>
       <c r="SU11" t="n">
         <v>0.5600393</v>
+      </c>
+      <c r="SV11" t="n">
+        <v>0.009513986</v>
       </c>
     </row>
   </sheetData>
